--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2872300.55060862</v>
+        <v>2866560.435900406</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9010734.878427183</v>
+        <v>9010734.878427185</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>70.83311339680675</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>19.97131512850925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958791</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174256</v>
+        <v>72.50477145174332</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164566</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356712</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100801</v>
+        <v>59.24433418100842</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>15.20174324431394</v>
       </c>
       <c r="U3" t="n">
-        <v>50.68108481611576</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627966</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514145</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731804</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.8274300477013</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>105.3839936249372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.14532219379995</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>134.0896134541867</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>352.2244945626373</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>192.3407275110829</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>20.03703365443095</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>47.52807271124608</v>
+        <v>68.8780973458249</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>91.476126116581</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>190.0391450213916</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>69.91764006859141</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>240.7304063683968</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>203.9243468681828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.38006817584717</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>5.947390656462673</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>123.6357395020768</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>42.5509333559684</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.4542291304343</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>67.02802063172295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.13625055643865</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.4881144206586</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>81.17400253769641</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.20188851094979</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.73833913275</v>
+        <v>1205.696192134822</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.73833913275</v>
+        <v>836.7336751944106</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.73833913275</v>
+        <v>478.4679765876601</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742036</v>
+        <v>478.4679765876601</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524289</v>
+        <v>67.48207179805252</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307497</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307497</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621370003</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015921</v>
+        <v>138.9642385015908</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060735</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927237</v>
+        <v>769.5640925927186</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689019</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811689</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633683</v>
+        <v>1978.679112633671</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054144</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310685001</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804453</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222174</v>
+        <v>2109.431301222158</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222174</v>
+        <v>1889.527734748507</v>
       </c>
       <c r="U2" t="n">
-        <v>1855.646326378676</v>
+        <v>1889.527734748507</v>
       </c>
       <c r="V2" t="n">
-        <v>1855.646326378676</v>
+        <v>1558.464847404936</v>
       </c>
       <c r="W2" t="n">
-        <v>1502.877671108562</v>
+        <v>1205.696192134822</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.877671108562</v>
+        <v>1205.696192134822</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.73833913275</v>
+        <v>1205.696192134822</v>
       </c>
     </row>
     <row r="3">
@@ -4397,7 +4397,7 @@
         <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703727</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621370003</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683017</v>
+        <v>108.2048630683008</v>
       </c>
       <c r="K3" t="n">
-        <v>282.8286256313446</v>
+        <v>338.9063907138125</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743785</v>
+        <v>710.5174612568451</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376569</v>
+        <v>987.4020823874797</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.263565019118</v>
+        <v>1501.594138030028</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108992</v>
+        <v>1905.563735119899</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310685001</v>
+        <v>2212.781883695908</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310685001</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548886004</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926795</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087526</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
-        <v>1893.858088121753</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1658.70597989001</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1404.468623161808</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1196.617122956276</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>988.8568241913216</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5481446494723</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5481446494723</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5481446494723</v>
+        <v>464.7224358422826</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5481446494723</v>
+        <v>316.8093422598895</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5481446494723</v>
+        <v>169.9193947619791</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5481446494723</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5481446494723</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621370003</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621370003</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181677</v>
+        <v>88.80529410181585</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365677</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>322.354119895062</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896771</v>
+        <v>449.7398382896737</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885966</v>
+        <v>551.3848716885924</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546233</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664232</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664232</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664232</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664232</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="U4" t="n">
-        <v>285.3536295461403</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="V4" t="n">
-        <v>285.3536295461403</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5481446494723</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5481446494723</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5481446494723</v>
+        <v>614.8390752546184</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1855.790121687965</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2621.771591251948</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2403.136924224011</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.752638628376</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4664,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2017.897565358469</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2017.897565358469</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>2407.975480672791</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>2257.858841260455</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>2257.858841260455</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>2257.858841260455</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>2088.859040998787</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>1897.67628410419</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5323180934831</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C13" t="n">
-        <v>657.5961351655762</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D13" t="n">
-        <v>507.4794957532405</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X13" t="n">
-        <v>826.5323180934831</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.5323180934831</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="14">
@@ -5257,46 +5257,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5311,13 +5311,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.5676213586405</v>
+        <v>822.6299143867971</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>653.6937314588902</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>503.5770920465544</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>355.6639984641613</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.554276517392</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.451409643036</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.766921437149</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W16" t="n">
-        <v>841.349751400188</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X16" t="n">
-        <v>613.3602005021706</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.5676213586405</v>
+        <v>1004.278379217037</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710451</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L17" t="n">
-        <v>1732.058578925877</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2265.590483597801</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.6138567886371</v>
+        <v>1044.396529817271</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>875.4603468893642</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>725.3437074770285</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>577.4306138946354</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1299.728939866311</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V19" t="n">
-        <v>1045.044451660424</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.044451660424</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="X19" t="n">
-        <v>817.0549007624069</v>
+        <v>1446.837573791041</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188767</v>
+        <v>1226.044994647511</v>
       </c>
     </row>
     <row r="20">
@@ -5752,37 +5752,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>998.7893082582079</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>792.8051195024677</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>572.0125403589376</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,52 +5989,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852379</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570251</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590077</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154776</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6235,19 +6235,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3065.182384345805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C28" t="n">
-        <v>3065.182384345805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D28" t="n">
-        <v>3065.182384345805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763412</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763412</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4239.71463746044</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3985.030149254553</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>3695.612979217593</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>3467.623428319575</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>3246.830849176045</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,22 +6469,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6493,16 +6493,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3942.370854773036</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3773.434671845129</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432793</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4274.768765573601</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4231.788024809996</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>3942.370854773036</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3942.370854773036</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3942.370854773036</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089261</v>
@@ -6706,16 +6706,16 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443163</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3190.066969701439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3190.066969701439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3039.950330289103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3039.950330289103</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>4364.599222816073</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>4109.914734610186</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3820.497564573226</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3592.508013675209</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3371.715434531679</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6940,19 +6940,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2628.734306600803</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3175.513123659585</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3678.485594538922</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.6966825353827</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6966825353827</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>653.6966825353827</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1385.724257814702</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.039769608815</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>1063.33469826364</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>835.3451473656224</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3451473656224</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3888.072124968687</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6968904858347</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6968904858347</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D43" t="n">
-        <v>481.6968904858347</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E43" t="n">
-        <v>333.7837969034416</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F43" t="n">
-        <v>333.7837969034416</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G43" t="n">
-        <v>333.7837969034416</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>177.5549764056635</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858347</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>845.0839474760701</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1296.118160724479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2274.668463554307</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107237</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.8425593065537</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C46" t="n">
-        <v>109.9063763786467</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D46" t="n">
-        <v>109.9063763786467</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E46" t="n">
-        <v>109.9063763786467</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9063763786467</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7845,13 +7845,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>681.2836032803235</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>460.4910241367934</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>207.8210298585686</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>254.8493141827738</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263721</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>297.8289162490807</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="L14" t="n">
-        <v>295.4822118493981</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>345.3140082169179</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>282.7041781993168</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>417.9366924407894</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>123.471956347048</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>189.7998007892645</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>229.1155640189937</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,10 +11311,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1815826777911</v>
+        <v>156.8315580432123</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53.94492190635025</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>29.50980425477763</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>75.50340795433983</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>45.48143183721606</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>21.78530852085436</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>139.0409798470841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>219.7622647325745</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>33.50229141006236</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>162.5760987035361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>209.5867099678596</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>23.96681889249699</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>219.4949777048681</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>85.4792224617737</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>5.266900493662177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>15.17841787214168</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>151.8239197480784</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829551.6724049809</v>
+        <v>829551.6724049808</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762370.2311641346</v>
+        <v>762370.2311641347</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762370.2311641346</v>
+        <v>762370.2311641347</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635221</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="G2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635221</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="I2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="J2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="K2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="L2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635222</v>
       </c>
       <c r="N2" t="n">
-        <v>655184.9483635221</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="O2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="P2" t="n">
         <v>655184.9483635225</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410651</v>
+        <v>493391.6844106469</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446611</v>
+        <v>91792.63957447016</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832168</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220009</v>
+        <v>21342.09858220105</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760449</v>
+        <v>235704.959176046</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,25 +26426,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="F4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="G4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="I4" t="n">
-        <v>28561.83935289579</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
@@ -26456,10 +26456,10 @@
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="P4" t="n">
         <v>28561.83935289576</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140145</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,13 +26484,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127998.2895800639</v>
+        <v>-127998.2895800605</v>
       </c>
       <c r="C6" t="n">
-        <v>292785.3270371243</v>
+        <v>292785.3270371205</v>
       </c>
       <c r="D6" t="n">
-        <v>384577.9666115906</v>
+        <v>384577.9666115907</v>
       </c>
       <c r="E6" t="n">
-        <v>-197137.8232364939</v>
+        <v>-197809.7781387519</v>
       </c>
       <c r="F6" t="n">
-        <v>530239.5907569131</v>
+        <v>529567.6358546552</v>
       </c>
       <c r="G6" t="n">
-        <v>530239.5907569128</v>
+        <v>529567.6358546553</v>
       </c>
       <c r="H6" t="n">
-        <v>530239.5907569127</v>
+        <v>529567.6358546551</v>
       </c>
       <c r="I6" t="n">
-        <v>530239.5907569128</v>
+        <v>529567.6358546553</v>
       </c>
       <c r="J6" t="n">
-        <v>375513.0550736962</v>
+        <v>374841.1001714395</v>
       </c>
       <c r="K6" t="n">
-        <v>508897.4921747128</v>
+        <v>508225.5372724539</v>
       </c>
       <c r="L6" t="n">
-        <v>530239.5907569131</v>
+        <v>529567.6358546553</v>
       </c>
       <c r="M6" t="n">
-        <v>400597.2759179682</v>
+        <v>399925.32101571</v>
       </c>
       <c r="N6" t="n">
-        <v>530239.5907569127</v>
+        <v>529567.6358546554</v>
       </c>
       <c r="O6" t="n">
-        <v>530239.5907569129</v>
+        <v>529567.6358546554</v>
       </c>
       <c r="P6" t="n">
-        <v>530239.5907569132</v>
+        <v>529567.6358546553</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843552</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712503</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.359917843552</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353462</v>
+        <v>71.38374637353775</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712503</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9244450833052</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712503</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833052</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712503</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.9244450833052</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>311.097256675455</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>394.0998247269532</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836454</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>182.3069027665622</v>
       </c>
       <c r="U3" t="n">
-        <v>175.2169444462963</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479674</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848748</v>
+        <v>54.30080173848787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731851</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631661</v>
+        <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>189.6955682888897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249.2990479957457</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.2703906151716</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>152.1922607877911</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>54.65155117907415</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>156.9002412063301</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>136.1338551873642</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967257</v>
+        <v>1.231597659672557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212171</v>
+        <v>12.61309953212158</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452679</v>
+        <v>47.48116877452632</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676349</v>
+        <v>104.5303118676338</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015748</v>
+        <v>156.6638408015732</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787792</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589813</v>
+        <v>216.2577725589791</v>
       </c>
       <c r="N2" t="n">
-        <v>219.757049409526</v>
+        <v>219.7570494095238</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811568</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579903</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709663</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940713</v>
+        <v>77.36434648940636</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978871</v>
+        <v>28.06503166978843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216677</v>
+        <v>5.391318755216623</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380555</v>
+        <v>0.09852781277380457</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540552</v>
+        <v>0.6589628421540485</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014165</v>
+        <v>6.364193765014101</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784796</v>
+        <v>22.68797504784773</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440373</v>
+        <v>62.25753764403667</v>
       </c>
       <c r="K3" t="n">
-        <v>106.408048068359</v>
+        <v>106.4080480683579</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966513</v>
+        <v>143.0787521966499</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247358</v>
+        <v>166.9661552247341</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302339</v>
+        <v>171.3852525302321</v>
       </c>
       <c r="O3" t="n">
-        <v>156.784023238294</v>
+        <v>156.7840232382924</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723827</v>
+        <v>125.8330009723814</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338431</v>
+        <v>84.11602876338347</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163513</v>
+        <v>40.91349997163471</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422115</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945511</v>
+        <v>2.656082683945484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276681</v>
+        <v>0.04335281856276637</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654215</v>
+        <v>0.5524523108654159</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967115</v>
+        <v>4.911803272967066</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584377</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781853</v>
+        <v>39.0583783781849</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509169</v>
+        <v>64.18491393509105</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448278</v>
+        <v>82.13459174448195</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502239</v>
+        <v>86.5994108750215</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361497</v>
+        <v>84.54027044361412</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395979</v>
+        <v>78.08662299395901</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230513</v>
+        <v>66.81659585230446</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437634</v>
+        <v>46.26034759437588</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140034</v>
+        <v>24.84026481400315</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263752</v>
+        <v>9.627737090263654</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515891</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084121</v>
+        <v>0.0301337624108409</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302235</v>
+        <v>92.5810225130213</v>
       </c>
       <c r="K2" t="n">
-        <v>260.719402327759</v>
+        <v>260.7194023277574</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592425</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>435.425072824541</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249192</v>
+        <v>427.690910224917</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222155</v>
+        <v>358.2123200222134</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742034</v>
+        <v>267.6709953742016</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564215</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777944</v>
+        <v>61.51094631777882</v>
       </c>
       <c r="K3" t="n">
-        <v>176.3876389525686</v>
+        <v>233.0318461065775</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202363</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527174</v>
+        <v>279.6814354854895</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904541</v>
+        <v>519.3859147904524</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705791</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979896</v>
+        <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.211542413211</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920883</v>
+        <v>41.91542210920819</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047989</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836863</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228435</v>
+        <v>128.6724428228427</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079995</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719862</v>
+        <v>64.09515511719795</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>836.7500320793075</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>654.0944880967816</v>
       </c>
       <c r="L14" t="n">
-        <v>751.0723262417303</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>324.040058608738</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>800.9041226092498</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>681.4661644186887</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36852,10 +36852,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>970.2385278537009</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37308,13 +37308,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37323,7 +37323,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>522.2339425664198</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>588.5617870086363</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>566.3068505743942</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,10 +38031,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866560.435900406</v>
+        <v>2869965.927024854</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359935</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9010734.878427185</v>
+        <v>9010734.878427183</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>19.97131512850925</v>
+        <v>16.89332997335032</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>26.75866868093562</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100842</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>15.20174324431394</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>121.3842648627966</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3842648627966</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>298.0516882329493</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>20.14532219379995</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686235</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.58072854101235</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.2244945626373</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>63.72703424640811</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>68.8780973458249</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>72.71091072000192</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.476126116581</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>69.91764006859141</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>42.6780462830638</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.25588147840188</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>5.947390656462673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>111.9187566128689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>15.0733951160684</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>181.7898887334973</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>63.13625055643865</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>35.19569619650069</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.17400253769641</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G46" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1205.696192134822</v>
+        <v>951.9112172913249</v>
       </c>
       <c r="C2" t="n">
-        <v>836.7336751944106</v>
+        <v>951.9112172913249</v>
       </c>
       <c r="D2" t="n">
-        <v>478.4679765876601</v>
+        <v>951.9112172913249</v>
       </c>
       <c r="E2" t="n">
-        <v>478.4679765876601</v>
+        <v>566.1229646930806</v>
       </c>
       <c r="F2" t="n">
-        <v>67.48207179805252</v>
+        <v>559.1774639438771</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369974</v>
+        <v>542.1134942738263</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369974</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
         <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015908</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
         <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927186</v>
+        <v>769.5640925927187</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689012</v>
@@ -4363,19 +4363,19 @@
         <v>1889.527734748507</v>
       </c>
       <c r="U2" t="n">
-        <v>1889.527734748507</v>
+        <v>1635.74275990501</v>
       </c>
       <c r="V2" t="n">
-        <v>1558.464847404936</v>
+        <v>1304.679872561439</v>
       </c>
       <c r="W2" t="n">
-        <v>1205.696192134822</v>
+        <v>951.9112172913249</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.696192134822</v>
+        <v>951.9112172913249</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.696192134822</v>
+        <v>951.9112172913249</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>703.4974363982199</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>529.0444071170929</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>380.1099974558416</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>220.8725424503861</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>74.33798447727108</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I3" t="n">
         <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683008</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138125</v>
+        <v>278.0105538592115</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568451</v>
+        <v>649.621624402244</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874797</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030028</v>
+        <v>1649.44549324698</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119899</v>
+        <v>2053.415090336852</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695908</v>
+        <v>2360.63323891286</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="S3" t="n">
-        <v>2305.608548885989</v>
+        <v>2204.397547725778</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>2004.893864886509</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1776.714037348719</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1541.561929116976</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1287.324572388775</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1079.473072183242</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>871.712773418288</v>
       </c>
     </row>
     <row r="4">
@@ -4467,16 +4467,16 @@
         <v>614.8390752546184</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546184</v>
+        <v>492.2287067063389</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422826</v>
+        <v>342.1120672940032</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598895</v>
+        <v>194.1989737116101</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619791</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="G4" t="n">
         <v>47.30902621369974</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>355.0052931667779</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2621.771591251948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2403.136924224011</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2149.375138862102</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.375138862102</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626212</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.883827626212</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>351.301436796792</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>685.1208104866384</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.639626139993</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.189928969822</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N11" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.2936040684043</v>
+        <v>941.4904761572601</v>
       </c>
       <c r="C13" t="n">
-        <v>561.2936040684043</v>
+        <v>772.5542932293532</v>
       </c>
       <c r="D13" t="n">
-        <v>411.1769646560685</v>
+        <v>622.4376538170175</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>474.5245602346243</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>327.634612736714</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>159.9317761114329</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745028</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>963.7346480421742</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.942068898644</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1099.399357643587</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1963.918173296941</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2497.450077968866</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
         <v>3547.201365906985</v>
@@ -5311,10 +5311,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.6299143867971</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6937314588902</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5770920465544</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6639984641613</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.060509258584</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.070958360567</v>
+        <v>872.655184290893</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.278379217037</v>
+        <v>651.8626051473628</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551632</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.3606924710451</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1044.396529817271</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C19" t="n">
-        <v>875.4603468893642</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>725.3437074770285</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>577.4306138946354</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1674.827124689058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1674.827124689058</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1446.837573791041</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>1226.044994647511</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5758,16 +5758,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423046</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E22" t="n">
-        <v>112.9912177599115</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="23">
@@ -6004,13 +6004,13 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>613.848518831822</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.8559841413803</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C28" t="n">
-        <v>619.8559841413803</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D28" t="n">
-        <v>619.8559841413803</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E28" t="n">
-        <v>619.8559841413803</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
         <v>339.1038984121913</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1652.014947597955</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1362.597777560994</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>1134.608226662977</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,16 +6448,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6493,22 +6493,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1772.717315868848</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1550.950700438374</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1550.950700438374</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1296.266212232487</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1006.849042195526</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089261</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.949150983575</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.264662777688</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.8778888732404</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>402.8778888732404</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.308483745028</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>805.3189328470103</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.5263537034801</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>177.5549764056635</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7654,16 +7654,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107237</v>
@@ -7794,7 +7794,7 @@
         <v>171.0738540998329</v>
       </c>
       <c r="F46" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902263002</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>254.8493141827738</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640228</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>316.9032015413811</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>133.2530576400255</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>282.7041781993168</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>132.9990175570125</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189938</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,10 +11311,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>81.02798066791267</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>156.8315580432123</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>107.1210694619354</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94492190635025</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>75.50340795433983</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>137.1539338988735</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>128.1651665445294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>219.7622647325745</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>33.50229141006236</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.0642482077596</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.979136597944574</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>85.4792224617737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>15.17841787214168</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G46" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762370.2311641347</v>
+        <v>762370.2311641346</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762370.2311641347</v>
+        <v>762370.2311641346</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>762370.2311641346</v>
+        <v>762370.2311641347</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762370.2311641346</v>
+        <v>762370.2311641347</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762370.2311641347</v>
+        <v>762370.2311641346</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.948363522</v>
+      </c>
+      <c r="G2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="I2" t="n">
         <v>655184.9483635221</v>
-      </c>
-      <c r="F2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="G2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="H2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635225</v>
       </c>
       <c r="J2" t="n">
         <v>655184.9483635225</v>
       </c>
       <c r="K2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="L2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="M2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="N2" t="n">
         <v>655184.9483635225</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635226</v>
       </c>
       <c r="O2" t="n">
         <v>655184.9483635226</v>
       </c>
       <c r="P2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635228</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>493391.6844106469</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447016</v>
+        <v>91792.63957447025</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220105</v>
+        <v>21342.09858220108</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289576</v>
-      </c>
       <c r="G4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
         <v>28561.83935289575</v>
@@ -26444,22 +26444,22 @@
         <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127998.2895800605</v>
+        <v>-127998.2895800601</v>
       </c>
       <c r="C6" t="n">
         <v>292785.3270371205</v>
       </c>
       <c r="D6" t="n">
-        <v>384577.9666115907</v>
+        <v>384577.9666115908</v>
       </c>
       <c r="E6" t="n">
-        <v>-197809.7781387519</v>
+        <v>-197205.0187267195</v>
       </c>
       <c r="F6" t="n">
-        <v>529567.6358546552</v>
+        <v>530172.3952666868</v>
       </c>
       <c r="G6" t="n">
-        <v>529567.6358546553</v>
+        <v>530172.3952666875</v>
       </c>
       <c r="H6" t="n">
-        <v>529567.6358546551</v>
+        <v>530172.395266687</v>
       </c>
       <c r="I6" t="n">
-        <v>529567.6358546553</v>
+        <v>530172.3952666869</v>
       </c>
       <c r="J6" t="n">
-        <v>374841.1001714395</v>
+        <v>375445.8595834716</v>
       </c>
       <c r="K6" t="n">
-        <v>508225.5372724539</v>
+        <v>508830.2966844862</v>
       </c>
       <c r="L6" t="n">
-        <v>529567.6358546553</v>
+        <v>530172.3952666875</v>
       </c>
       <c r="M6" t="n">
-        <v>399925.32101571</v>
+        <v>400530.0804277426</v>
       </c>
       <c r="N6" t="n">
-        <v>529567.6358546554</v>
+        <v>530172.3952666874</v>
       </c>
       <c r="O6" t="n">
-        <v>529567.6358546554</v>
+        <v>530172.3952666875</v>
       </c>
       <c r="P6" t="n">
-        <v>529567.6358546553</v>
+        <v>530172.3952666876</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26962,7 +26962,7 @@
         <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353775</v>
+        <v>71.3837463735378</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330891</v>
+        <v>82.92444508330902</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330891</v>
+        <v>82.92444508330902</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330891</v>
+        <v>82.92444508330902</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>394.0998247269532</v>
+        <v>397.1778098821122</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>109.925885640121</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100842</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>182.3069027665622</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>45.86255623583119</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479674</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>115.7324817878456</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.2703906151716</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480248</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.65155117907415</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33508,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777882</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065775</v>
@@ -34786,7 +34786,7 @@
         <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>279.6814354854895</v>
+        <v>490.5371850527157</v>
       </c>
       <c r="N3" t="n">
         <v>519.3859147904524</v>
@@ -34798,7 +34798,7 @@
         <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.211542413211</v>
+        <v>4.866739163764229</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>258.3236387357551</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35421,10 +35421,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>654.0944880967816</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>324.040058608738</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,10 +36135,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>681.4661644186887</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>685.300852969924</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7056784113259</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,10 +38031,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
